--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Product ID</t>
   </si>
@@ -22,10 +22,7 @@
     <t>Packing Unit ID</t>
   </si>
   <si>
-    <t>Min Cart</t>
-  </si>
-  <si>
-    <t>Max Cart</t>
+    <t>Cart Rules</t>
   </si>
 </sst>
 </file>
@@ -383,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,218 +396,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1007</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1091</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2726</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2726</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>9081</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>9081</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>11234</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>14015</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>14015</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>14017</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>14017</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>14018</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>14018</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>22930</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>22930</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>57</v>
+        <v>996</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>996</v>
+        <v>5812</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5812</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>6936</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>8853</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,46 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5812</v>
+        <v>75</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>5812</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>6936</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>8853</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1007</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>997</v>
+        <v>2778</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1007</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2778</v>
+        <v>12349</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>12350</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,23 +399,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>12349</v>
+        <v>7704</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>12350</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>5</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>7704</v>
+        <v>823</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>823</v>
+        <v>6935</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>8648</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6935</v>
+        <v>8089</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>8648</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,18 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>10517</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8089</v>
+        <v>996</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10517</v>
+        <v>8089</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>996</v>
+        <v>12924</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>8089</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_cart_rules_701.xlsx
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>12924</v>
+        <v>8650</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5</v>
